--- a/MLB Stats 2022.xlsx
+++ b/MLB Stats 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D3CEE8-0ED7-457B-899D-5EC5C4851F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF421C2-E563-4220-B5EA-CF8A11900590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{6E3285D4-2B0A-5C4A-B4B2-5DB7CBEC7590}"/>
+    <workbookView xWindow="-14400" yWindow="3135" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{6E3285D4-2B0A-5C4A-B4B2-5DB7CBEC7590}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 League Pitching" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="552">
   <si>
     <t>#P</t>
   </si>
@@ -259,9 +259,6 @@
     <t>OBP</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -1691,6 +1688,9 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>wRC+</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D3CB7F-5051-C440-BD73-BC0706090096}">
   <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
@@ -2627,7 +2627,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2735,10 +2735,10 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
@@ -6386,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB53704-C82A-314A-8189-A8E5A94BED5C}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD33" sqref="AD33"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6416,25 +6416,25 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -6443,22 +6443,22 @@
         <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>19</v>
@@ -6467,7 +6467,7 @@
         <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>73</v>
@@ -6503,9 +6503,11 @@
         <v>34</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="AE1" s="1"/>
+        <v>549</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6598,6 +6600,9 @@
       <c r="AD2" s="5">
         <v>19.399999999999999</v>
       </c>
+      <c r="AE2" s="5">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6690,6 +6695,9 @@
       <c r="AD3" s="5">
         <v>29.3</v>
       </c>
+      <c r="AE3" s="5">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -6782,6 +6790,9 @@
       <c r="AD4" s="5">
         <v>20.100000000000001</v>
       </c>
+      <c r="AE4" s="5">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -6874,6 +6885,9 @@
       <c r="AD5" s="5">
         <v>18.399999999999999</v>
       </c>
+      <c r="AE5" s="5">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -6966,6 +6980,9 @@
       <c r="AD6" s="5">
         <v>18.3</v>
       </c>
+      <c r="AE6" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -7058,6 +7075,9 @@
       <c r="AD7" s="5">
         <v>15.3</v>
       </c>
+      <c r="AE7" s="5">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -7150,6 +7170,9 @@
       <c r="AD8" s="5">
         <v>4.0999999999999996</v>
       </c>
+      <c r="AE8" s="5">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -7242,6 +7265,9 @@
       <c r="AD9" s="5">
         <v>23</v>
       </c>
+      <c r="AE9" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -7334,6 +7360,9 @@
       <c r="AD10" s="5">
         <v>9.4</v>
       </c>
+      <c r="AE10" s="5">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -7426,6 +7455,9 @@
       <c r="AD11" s="5">
         <v>3.4</v>
       </c>
+      <c r="AE11" s="5">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -7518,6 +7550,9 @@
       <c r="AD12" s="5">
         <v>30.3</v>
       </c>
+      <c r="AE12" s="5">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -7610,6 +7645,9 @@
       <c r="AD13" s="5">
         <v>9.1999999999999993</v>
       </c>
+      <c r="AE13" s="5">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -7702,6 +7740,9 @@
       <c r="AD14" s="5">
         <v>10.9</v>
       </c>
+      <c r="AE14" s="5">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -7794,6 +7835,9 @@
       <c r="AD15" s="5">
         <v>37.5</v>
       </c>
+      <c r="AE15" s="5">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -7886,6 +7930,9 @@
       <c r="AD16" s="5">
         <v>8</v>
       </c>
+      <c r="AE16" s="5">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -7978,6 +8025,9 @@
       <c r="AD17" s="5">
         <v>24.1</v>
       </c>
+      <c r="AE17" s="5">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -8070,6 +8120,9 @@
       <c r="AD18" s="5">
         <v>20.7</v>
       </c>
+      <c r="AE18" s="5">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -8162,6 +8215,9 @@
       <c r="AD19" s="5">
         <v>31.2</v>
       </c>
+      <c r="AE19" s="5">
+        <v>113</v>
+      </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -8254,6 +8310,9 @@
       <c r="AD20" s="5">
         <v>34.200000000000003</v>
       </c>
+      <c r="AE20" s="5">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -8346,6 +8405,9 @@
       <c r="AD21" s="5">
         <v>5.2</v>
       </c>
+      <c r="AE21" s="5">
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -8438,6 +8500,9 @@
       <c r="AD22" s="5">
         <v>22.3</v>
       </c>
+      <c r="AE22" s="5">
+        <v>107</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -8530,6 +8595,9 @@
       <c r="AD23" s="5">
         <v>5.9</v>
       </c>
+      <c r="AE23" s="5">
+        <v>82</v>
+      </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -8622,6 +8690,9 @@
       <c r="AD24" s="5">
         <v>20.8</v>
       </c>
+      <c r="AE24" s="5">
+        <v>102</v>
+      </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -8714,6 +8785,9 @@
       <c r="AD25" s="5">
         <v>24.4</v>
       </c>
+      <c r="AE25" s="5">
+        <v>108</v>
+      </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -8806,6 +8880,9 @@
       <c r="AD26" s="5">
         <v>15.7</v>
       </c>
+      <c r="AE26" s="5">
+        <v>102</v>
+      </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -8898,6 +8975,9 @@
       <c r="AD27" s="5">
         <v>31.4</v>
       </c>
+      <c r="AE27" s="5">
+        <v>112</v>
+      </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -8990,6 +9070,9 @@
       <c r="AD28" s="5">
         <v>18.600000000000001</v>
       </c>
+      <c r="AE28" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -9082,6 +9165,9 @@
       <c r="AD29" s="5">
         <v>17.2</v>
       </c>
+      <c r="AE29" s="5">
+        <v>98</v>
+      </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -9174,6 +9260,9 @@
       <c r="AD30" s="5">
         <v>33.4</v>
       </c>
+      <c r="AE30" s="5">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -9266,6 +9355,9 @@
       <c r="AD31" s="5">
         <v>8.1999999999999993</v>
       </c>
+      <c r="AE31" s="5">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -9359,7 +9451,10 @@
         <f>AVERAGE(AD2:AD31)</f>
         <v>18.996666666666666</v>
       </c>
-      <c r="AE32" s="4"/>
+      <c r="AE32" s="3">
+        <f>AVERAGE(AE2:AE31)</f>
+        <v>100.06666666666666</v>
+      </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -9423,55 +9518,55 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -9480,52 +9575,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -9533,52 +9628,52 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -9586,52 +9681,52 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -9639,52 +9734,52 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -9692,52 +9787,52 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -9745,52 +9840,52 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -9798,52 +9893,52 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -9851,52 +9946,52 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -9904,52 +9999,52 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -9957,52 +10052,52 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -10010,52 +10105,52 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -10063,52 +10158,52 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -10116,52 +10211,52 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -10169,52 +10264,52 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -10222,52 +10317,52 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -10275,52 +10370,52 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -10328,52 +10423,52 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -10381,52 +10476,52 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -10434,52 +10529,52 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -10487,52 +10582,52 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -10540,52 +10635,52 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -10593,52 +10688,52 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -10646,52 +10741,52 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -10699,52 +10794,52 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -10752,52 +10847,52 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -10805,52 +10900,52 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -10858,52 +10953,52 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.25">
@@ -10911,52 +11006,52 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -10964,52 +11059,52 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -11017,57 +11112,57 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>

--- a/MLB Stats 2022.xlsx
+++ b/MLB Stats 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF421C2-E563-4220-B5EA-CF8A11900590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A3106-FB87-49A6-8124-DD255DAD798E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="3135" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{6E3285D4-2B0A-5C4A-B4B2-5DB7CBEC7590}"/>
+    <workbookView xWindow="-28800" yWindow="3255" windowWidth="28800" windowHeight="15435" xr2:uid="{6E3285D4-2B0A-5C4A-B4B2-5DB7CBEC7590}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 League Pitching" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>BB9</t>
   </si>
   <si>
-    <t>SO9</t>
-  </si>
-  <si>
     <t>SO/W</t>
   </si>
   <si>
@@ -1691,6 +1688,9 @@
   </si>
   <si>
     <t>wRC+</t>
+  </si>
+  <si>
+    <t>K/9</t>
   </si>
 </sst>
 </file>
@@ -2587,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D3CB7F-5051-C440-BD73-BC0706090096}">
   <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL32" sqref="AL32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2627,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2726,24 +2726,24 @@
         <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AK1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>33</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>32</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>36</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>33</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>43</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2">
         <v>24</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>38</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>28</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>25</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2">
         <v>33</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
         <v>22</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
         <v>33</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>35</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>31</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>32</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>33</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>39</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2">
         <v>33</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2">
         <v>33</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2">
         <v>35</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2">
         <v>33</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2">
         <v>36</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2">
         <v>30</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2">
         <v>29</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2">
         <v>34</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2">
         <v>32</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2">
         <v>40</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2">
         <v>31</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2">
         <v>33</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2">
         <v>36</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2">
         <v>29</v>
@@ -6386,7 +6386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB53704-C82A-314A-8189-A8E5A94BED5C}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2:AE31"/>
     </sheetView>
   </sheetViews>
@@ -6416,25 +6416,25 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -6443,22 +6443,22 @@
         <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>19</v>
@@ -6467,51 +6467,51 @@
         <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>57</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>53</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>58</v>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>54</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>64</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2">
         <v>44</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>66</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>50</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2">
         <v>43</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2">
         <v>53</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
         <v>45</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
         <v>55</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>66</v>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>56</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>51</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>61</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2">
         <v>61</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2">
         <v>54</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2">
         <v>64</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2">
         <v>56</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2">
         <v>68</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2">
         <v>55</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2">
         <v>59</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2">
         <v>66</v>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2">
         <v>51</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2">
         <v>61</v>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2">
         <v>55</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2">
         <v>51</v>
@@ -9266,7 +9266,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2">
         <v>55</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2">
         <v>50</v>
@@ -9518,55 +9518,55 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -9575,52 +9575,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -9628,52 +9628,52 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -9681,52 +9681,52 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -9734,52 +9734,52 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -9787,52 +9787,52 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -9840,52 +9840,52 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -9893,52 +9893,52 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -9946,52 +9946,52 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -9999,52 +9999,52 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -10052,52 +10052,52 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -10105,52 +10105,52 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -10158,52 +10158,52 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -10211,52 +10211,52 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -10264,52 +10264,52 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -10317,52 +10317,52 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -10370,52 +10370,52 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -10423,52 +10423,52 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -10476,52 +10476,52 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -10529,52 +10529,52 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -10582,52 +10582,52 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -10635,52 +10635,52 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -10688,52 +10688,52 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -10741,52 +10741,52 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -10794,52 +10794,52 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -10847,52 +10847,52 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -10900,52 +10900,52 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -10953,52 +10953,52 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.25">
@@ -11006,52 +11006,52 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -11059,52 +11059,52 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -11112,57 +11112,57 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
